--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal-with-CCS.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C199F-9FDB-9548-B8F4-4BE140D724A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9727A2EE-1467-9F49-8DFC-609384B7088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34000" yWindow="-700" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCI!$A$1:$K$332</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -365,9 +368,6 @@
     <t>Methanol-based fuels from coal</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
     <t>Carbon dioxide, fossil</t>
   </si>
   <si>
@@ -460,6 +460,9 @@
 0.139 kg H2 are needed, corresponding to 2.5 kg CO2 from the gasification process, which are otherwise stored underground.
 1.69 kg out of the 2.5 kg CO2 are redirected as CO2 input in the methanol synthesis process. This means that these 1.69 kg are not stored underground.
 We do not need to apply a carbon balance correction, since these 1.69 kg CO2 are stored in the fuel instead of being stored underground.</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
   </si>
 </sst>
 </file>
@@ -471,9 +474,23 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -610,44 +627,41 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1002,12 +1016,12 @@
       <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1015,426 +1029,422 @@
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
         <v>19</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <v>1.55</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9">
         <v>44</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <f>D12*C12</f>
         <v>16.059999999999999</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <f>E12/SUM($E$12:$E$15)</f>
         <v>0.36968151224138407</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <f>F12*$D$10/D12</f>
         <v>2.2889868977137753</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="12">
         <f>-$H$10*G12</f>
         <v>-3.5479296914563516</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>3.16</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="12">
         <f>I12+H12</f>
         <v>-0.38792969145635148</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
         <v>45.5</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <f t="shared" ref="E13:E15" si="0">D13*C13</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="13">
         <f t="shared" ref="F13:F15" si="1">E13/SUM($E$12:$E$15)</f>
         <v>9.0072463100905095E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <f t="shared" ref="G13:G15" si="2">F13*$D$10/D13</f>
         <v>2.3670205419540173</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="12">
         <f t="shared" ref="H13:H15" si="3">-$H$10*G13</f>
         <v>-3.6688818400287269</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>3.01</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="12">
         <f t="shared" ref="J13:J15" si="4">I13+H13</f>
         <v>-0.65888184002872707</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
         <v>43.4</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>4.4701999999999993</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <f t="shared" si="1"/>
         <v>0.10289852403620392</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>2.2577734400176781</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <f t="shared" si="3"/>
         <v>-3.4995488320274011</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>3.14</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="12">
         <f t="shared" si="4"/>
         <v>-0.35954883202740096</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9">
         <v>42.6</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>18.999600000000001</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <f t="shared" si="1"/>
         <v>0.43734750062150696</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="2"/>
         <v>2.2161554964228825</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <f t="shared" si="3"/>
         <v>-3.4350410194554679</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>3</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="12">
         <f t="shared" si="4"/>
         <v>-0.43504101945546791</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
         <v>19</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
         <v>1.55</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9">
         <v>44</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>0.183</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <f>D21*C21</f>
         <v>8.0519999999999996</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <f>E21/SUM($E$21:$E$24)</f>
         <v>0.18519540737469639</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <f>F21*$D$19/D21</f>
         <v>2.28711268123942</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <f>-$H$19*G21</f>
         <v>-3.5450246559211012</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <v>3.16</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="12">
         <f>I21+H21</f>
         <v>-0.38502465592110102</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
         <v>45.5</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <f t="shared" ref="E22:E24" si="5">D22*C22</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <f t="shared" ref="F22:F24" si="6">E22/SUM($E$21:$E$24)</f>
         <v>8.9998712004121587E-2</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <f t="shared" ref="G22:G24" si="7">F22*$D$19/D22</f>
         <v>2.3650824317362185</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="12">
         <f t="shared" ref="H22:H24" si="8">-$H$19*G22</f>
         <v>-3.6658777691911388</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="12">
         <v>3.01</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="12">
         <f t="shared" ref="J22:J24" si="9">I22+H22</f>
         <v>-0.65587776919113905</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9">
         <v>43.4</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <f t="shared" si="5"/>
         <v>20.224399999999999</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <f t="shared" si="6"/>
         <v>0.46515971148892321</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <f t="shared" si="7"/>
         <v>2.2559247810407004</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="12">
         <f t="shared" si="8"/>
         <v>-3.4966834106130857</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>3.14</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="12">
         <f t="shared" si="9"/>
         <v>-0.35668341061308562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9">
         <v>42.6</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="17">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <f t="shared" si="5"/>
         <v>11.289000000000001</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <f t="shared" si="6"/>
         <v>0.2596461691322588</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <f t="shared" si="7"/>
         <v>2.2143409141090751</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <f t="shared" si="8"/>
         <v>-3.4322284168690667</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <v>3</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="12">
         <f t="shared" si="9"/>
         <v>-0.43222841686906666</v>
       </c>
@@ -1443,223 +1453,223 @@
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
         <v>19</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="21">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20">
         <v>1.55</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20">
         <v>44</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="23">
         <v>0.4</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="23">
         <f t="shared" ref="F30:F33" si="10">E30*D30</f>
         <v>0.14599999999999999</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="24">
         <f>F30/SUM($F$30:$F$33)</f>
         <v>0.38761130550673545</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="25">
         <f>G30*$D$28/D30</f>
         <v>2.4000042477951289</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="26">
         <f>-$I$28*H30</f>
         <v>-3.7200065840824497</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="20">
         <v>3.16</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="26">
         <f>J30+I30</f>
         <v>-0.56000658408244952</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20">
         <v>45.5</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="27">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="23">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="23">
         <f t="shared" si="10"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="24">
         <f t="shared" ref="G31:G33" si="11">F31/SUM($F$30:$F$33)</f>
         <v>6.3016040736355292E-2</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="26">
         <f t="shared" ref="H31:H33" si="12">G31*$D$28/D31</f>
         <v>1.656002930978639</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="26">
         <f t="shared" ref="I31:I33" si="13">-$I$28*H31</f>
         <v>-2.5668045430168904</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="26">
         <v>3.01</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="26">
         <f t="shared" ref="K31:K33" si="14">J31+I31</f>
         <v>0.44319545698310936</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20">
         <v>43.4</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="27">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="23">
         <v>0.71</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="23">
         <f t="shared" si="10"/>
         <v>7.3129999999999987E-2</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="24">
         <f t="shared" si="11"/>
         <v>0.19415078610758602</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="26">
         <f t="shared" si="12"/>
         <v>4.2600075398363533</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="26">
         <f t="shared" si="13"/>
         <v>-6.6030116867463482</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="26">
         <v>3.14</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="26">
         <f t="shared" si="14"/>
         <v>-3.4630116867463481</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20">
         <v>42.6</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="28">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="23">
         <v>0.3</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="23">
         <f t="shared" si="10"/>
         <v>0.1338</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="24">
         <f t="shared" si="11"/>
         <v>0.35522186764932334</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="25">
         <f t="shared" si="12"/>
         <v>1.8000031858463468</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="26">
         <f t="shared" si="13"/>
         <v>-2.7900049380618377</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="20">
         <v>3</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="26">
         <f t="shared" si="14"/>
         <v>0.20999506193816231</v>
       </c>
@@ -1668,223 +1678,223 @@
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20">
         <v>19</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="21">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20">
         <v>1.55</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20">
         <v>44</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="22">
         <v>0.183</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="23">
         <v>0.4</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="23">
         <f t="shared" ref="F39:F42" si="15">E39*D39</f>
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="24">
         <f>F39/SUM($F$30:$F$33)</f>
         <v>0.19433662714447286</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="26">
         <f>G39*$D$37/D39</f>
         <v>2.4000042477951293</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="26">
         <f>-$I$28*H39</f>
         <v>-3.7200065840824506</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="20">
         <v>3.16</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="26">
         <f>J39+I39</f>
         <v>-0.56000658408245041</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20">
         <v>45.5</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="27">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="23">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="23">
         <f t="shared" si="15"/>
         <v>2.3736E-2</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="24">
         <f t="shared" ref="G40:G42" si="16">F40/SUM($F$30:$F$33)</f>
         <v>6.3016040736355292E-2</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="26">
         <f t="shared" ref="H40:H42" si="17">G40*$D$37/D40</f>
         <v>1.656002930978639</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="26">
         <f t="shared" ref="I40:I42" si="18">-$I$28*H40</f>
         <v>-2.5668045430168904</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="26">
         <v>3.01</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="26">
         <f t="shared" ref="K40:K42" si="19">J40+I40</f>
         <v>0.44319545698310936</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20">
         <v>43.4</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="27">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="23">
         <v>0.71</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="23">
         <f t="shared" si="15"/>
         <v>0.33085999999999999</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="24">
         <f t="shared" si="16"/>
         <v>0.87839093520519518</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="25">
         <f t="shared" si="17"/>
         <v>4.2600075398363533</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="26">
         <f t="shared" si="18"/>
         <v>-6.6030116867463482</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="26">
         <v>3.14</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="26">
         <f t="shared" si="19"/>
         <v>-3.4630116867463481</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20">
         <v>42.6</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="28">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="23">
         <v>0.3</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="23">
         <f t="shared" si="15"/>
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="24">
         <f t="shared" si="16"/>
         <v>0.21106232046428405</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="26">
         <f t="shared" si="17"/>
         <v>1.8000031858463468</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="26">
         <f t="shared" si="18"/>
         <v>-2.7900049380618377</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="20">
         <v>3</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="26">
         <f t="shared" si="19"/>
         <v>0.20999506193816231</v>
       </c>
@@ -1896,10 +1906,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="B320" sqref="B320"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G333" sqref="G333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1919,15 +1930,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1943,15 +1955,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1967,12 +1979,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2007,332 +2019,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>100</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1.00057</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2348,15 +2292,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2364,7 +2308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2372,12 +2316,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2412,332 +2356,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>1.00057</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2753,15 +2629,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2769,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2777,12 +2653,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2817,332 +2693,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3">
-        <v>100</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>1.00057</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3150,7 +2958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3158,15 +2966,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3174,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3182,12 +2990,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3222,345 +3030,267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3">
-        <v>100</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>1.00057</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C76" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3" t="s">
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3" t="s">
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>58</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3" t="s">
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>45</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3" t="s">
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3" t="s">
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3" t="s">
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3" t="s">
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -3568,7 +3298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -3576,15 +3306,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3592,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -3600,12 +3330,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3640,332 +3370,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96">
+        <v>100</v>
+      </c>
+      <c r="J96" t="s">
+        <v>51</v>
+      </c>
+      <c r="K96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3">
-        <v>100</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>1.00057</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3" t="s">
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C98" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3" t="s">
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" t="s">
         <v>46</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3" t="s">
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>54</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3" t="s">
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>56</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3" t="s">
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>58</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3" t="s">
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>60</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" t="s">
         <v>46</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3" t="s">
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>45</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" t="s">
         <v>46</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3" t="s">
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>62</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3" t="s">
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" t="s">
         <v>63</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3" t="s">
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>70</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3" t="s">
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3973,7 +3635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3981,15 +3643,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3997,7 +3659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -4005,12 +3667,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4045,332 +3707,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117" t="s">
+        <v>51</v>
+      </c>
+      <c r="K117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>131</v>
       </c>
-      <c r="B117" s="3">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3">
-        <v>100</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B118" s="3">
+      <c r="B118">
         <v>1.00057</v>
       </c>
       <c r="C118" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3" t="s">
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C119" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3" t="s">
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>52</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" t="s">
         <v>46</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3" t="s">
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>54</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3" t="s">
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" t="s">
         <v>6</v>
       </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3" t="s">
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>58</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3" t="s">
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>60</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" t="s">
         <v>46</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3" t="s">
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>45</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" t="s">
         <v>46</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3" t="s">
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>62</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" t="s">
         <v>46</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" t="s">
         <v>63</v>
       </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3" t="s">
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>65</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" t="s">
         <v>63</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3" t="s">
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" t="s">
         <v>46</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" t="s">
         <v>27</v>
       </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3" t="s">
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -4378,7 +3972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -4386,15 +3980,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -4402,7 +3996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4410,12 +4004,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4450,332 +4044,264 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138">
+        <v>100</v>
+      </c>
+      <c r="J138" t="s">
+        <v>51</v>
+      </c>
+      <c r="K138" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>133</v>
       </c>
-      <c r="B138" s="3">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3">
-        <v>100</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>1.00057</v>
       </c>
       <c r="C139" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3" t="s">
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>33</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C140" t="s">
         <v>25</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" t="s">
         <v>7</v>
       </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3" t="s">
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="K140" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>52</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" t="s">
         <v>46</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3" t="s">
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="K141" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>54</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" t="s">
         <v>19</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" t="s">
         <v>15</v>
       </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3" t="s">
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>56</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D143" s="3" t="s">
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
         <v>6</v>
       </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3" t="s">
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>58</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" t="s">
         <v>19</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3" t="s">
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="K144" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>60</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" t="s">
         <v>46</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" t="s">
         <v>27</v>
       </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3" t="s">
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>45</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" t="s">
         <v>46</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3" t="s">
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>62</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" t="s">
         <v>46</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" t="s">
         <v>63</v>
       </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3" t="s">
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>65</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="C148" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" t="s">
         <v>63</v>
       </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3" t="s">
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="K148" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>70</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" t="s">
         <v>46</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" t="s">
         <v>27</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3" t="s">
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="3"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4783,7 +4309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4791,15 +4317,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4807,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -4815,12 +4341,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -4855,345 +4381,267 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+      <c r="J159" t="s">
+        <v>51</v>
+      </c>
+      <c r="K159" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>135</v>
       </c>
-      <c r="B159" s="3">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3">
-        <v>100</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K159" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B160" s="3">
+      <c r="B160">
         <v>1.00057</v>
       </c>
       <c r="C160" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3" t="s">
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="K160" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161">
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="C161" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3" t="s">
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="K161" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>52</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" t="s">
         <v>46</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3" t="s">
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="K162" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>54</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="5">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" t="s">
         <v>19</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" t="s">
         <v>15</v>
       </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3" t="s">
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>56</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="5">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3" t="s">
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="K164" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>58</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="5">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" t="s">
         <v>19</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3" t="s">
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="K165" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>60</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B166" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" t="s">
         <v>46</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" t="s">
         <v>27</v>
       </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3" t="s">
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="K166" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>45</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" t="s">
         <v>46</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3" t="s">
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="K167" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>62</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" t="s">
         <v>46</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" t="s">
         <v>63</v>
       </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3" t="s">
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>65</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" t="s">
         <v>63</v>
       </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3" t="s">
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="K169" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>70</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" t="s">
         <v>46</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" t="s">
         <v>27</v>
       </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3" t="s">
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -5201,15 +4649,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -5217,7 +4665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5225,7 +4673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5233,28 +4681,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>22</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
@@ -5283,11 +4731,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B183" s="3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>131</v>
+      </c>
+      <c r="B183">
         <v>1</v>
       </c>
       <c r="C183" t="s">
@@ -5297,21 +4745,21 @@
         <v>13</v>
       </c>
       <c r="E183" s="2"/>
-      <c r="F183" s="3" t="s">
+      <c r="F183" t="s">
         <v>18</v>
       </c>
       <c r="G183" t="s">
         <v>44</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="H183" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>137</v>
-      </c>
-      <c r="B184" s="5">
+        <v>136</v>
+      </c>
+      <c r="B184" s="4">
         <v>2.3730000000000002</v>
       </c>
       <c r="C184" t="s">
@@ -5330,11 +4778,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>33</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <f>18.4/1000*B184</f>
         <v>4.3663200000000006E-2</v>
       </c>
@@ -5355,10 +4803,10 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B186" s="5">
+      <c r="A186" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B186" s="4">
         <f>0.01*B184</f>
         <v>2.3730000000000001E-2</v>
       </c>
@@ -5374,25 +4822,25 @@
       <c r="G186" t="s">
         <v>24</v>
       </c>
-      <c r="H186" s="4" t="s">
-        <v>110</v>
+      <c r="H186" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I186" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B187" s="5"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -5400,15 +4848,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +4864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5424,7 +4872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -5432,28 +4880,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>22</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>9</v>
       </c>
@@ -5482,11 +4930,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B198" s="3">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>123</v>
+      </c>
+      <c r="B198">
         <v>1</v>
       </c>
       <c r="C198" t="s">
@@ -5496,21 +4944,21 @@
         <v>13</v>
       </c>
       <c r="E198" s="2"/>
-      <c r="F198" s="3" t="s">
+      <c r="F198" t="s">
         <v>18</v>
       </c>
       <c r="G198" t="s">
         <v>44</v>
       </c>
-      <c r="H198" s="3" t="s">
+      <c r="H198" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>137</v>
-      </c>
-      <c r="B199" s="5">
+        <v>136</v>
+      </c>
+      <c r="B199" s="4">
         <v>1.93</v>
       </c>
       <c r="C199" t="s">
@@ -5529,11 +4977,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>33</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <f>18.4/1000*B199</f>
         <v>3.5511999999999995E-2</v>
       </c>
@@ -5554,10 +5002,10 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B201" s="5">
+      <c r="A201" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B201" s="4">
         <f>0.01*B199</f>
         <v>1.9300000000000001E-2</v>
       </c>
@@ -5573,25 +5021,25 @@
       <c r="G201" t="s">
         <v>24</v>
       </c>
-      <c r="H201" s="4" t="s">
-        <v>110</v>
+      <c r="H201" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I201" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B202" s="5"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -5599,15 +5047,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5615,7 +5063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -5623,7 +5071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -5631,28 +5079,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>22</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
@@ -5681,11 +5129,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B213" s="3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>133</v>
+      </c>
+      <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
@@ -5695,21 +5143,21 @@
         <v>13</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="F213" s="3" t="s">
+      <c r="F213" t="s">
         <v>18</v>
       </c>
       <c r="G213" t="s">
         <v>44</v>
       </c>
-      <c r="H213" s="3" t="s">
+      <c r="H213" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>137</v>
-      </c>
-      <c r="B214" s="5">
+        <v>136</v>
+      </c>
+      <c r="B214" s="4">
         <v>2.4510000000000001</v>
       </c>
       <c r="C214" t="s">
@@ -5728,11 +5176,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>33</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="4">
         <f>18.4/1000*B214</f>
         <v>4.5098400000000004E-2</v>
       </c>
@@ -5753,10 +5201,10 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B216" s="5">
+      <c r="A216" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B216" s="4">
         <f>0.01*B214</f>
         <v>2.4510000000000001E-2</v>
       </c>
@@ -5772,25 +5220,25 @@
       <c r="G216" t="s">
         <v>24</v>
       </c>
-      <c r="H216" s="4" t="s">
-        <v>110</v>
+      <c r="H216" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I216" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B217" s="5"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="4"/>
+    </row>
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -5798,15 +5246,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5814,7 +5262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -5822,7 +5270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -5830,28 +5278,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>28</v>
       </c>
       <c r="B224" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -5880,11 +5328,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B228" s="3">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>125</v>
+      </c>
+      <c r="B228">
         <v>1</v>
       </c>
       <c r="C228" t="s">
@@ -5894,21 +5342,21 @@
         <v>13</v>
       </c>
       <c r="E228" s="2"/>
-      <c r="F228" s="3" t="s">
+      <c r="F228" t="s">
         <v>18</v>
       </c>
       <c r="G228" t="s">
         <v>44</v>
       </c>
-      <c r="H228" s="3" t="s">
+      <c r="H228" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>137</v>
-      </c>
-      <c r="B229" s="5">
+        <v>136</v>
+      </c>
+      <c r="B229" s="4">
         <v>2.57</v>
       </c>
       <c r="C229" t="s">
@@ -5927,11 +5375,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>33</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="4">
         <f>18.4/1000*B229</f>
         <v>4.7287999999999997E-2</v>
       </c>
@@ -5952,10 +5400,10 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B231" s="5">
+      <c r="A231" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B231" s="4">
         <f>0.01*B229</f>
         <v>2.5700000000000001E-2</v>
       </c>
@@ -5971,28 +5419,28 @@
       <c r="G231" t="s">
         <v>24</v>
       </c>
-      <c r="H231" s="4" t="s">
-        <v>110</v>
+      <c r="H231" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I231" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B232" s="5"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B233" s="5"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="4"/>
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -6000,15 +5448,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -6016,7 +5464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -6024,7 +5472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -6032,28 +5480,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>28</v>
       </c>
       <c r="B240" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>22</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -6082,11 +5530,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B244" s="3">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>135</v>
+      </c>
+      <c r="B244">
         <v>1</v>
       </c>
       <c r="C244" t="s">
@@ -6096,21 +5544,21 @@
         <v>13</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="F244" s="3" t="s">
+      <c r="F244" t="s">
         <v>18</v>
       </c>
       <c r="G244" t="s">
         <v>44</v>
       </c>
-      <c r="H244" s="3" t="s">
+      <c r="H244" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>137</v>
-      </c>
-      <c r="B245" s="5">
+        <v>136</v>
+      </c>
+      <c r="B245" s="4">
         <v>2.371</v>
       </c>
       <c r="C245" t="s">
@@ -6129,11 +5577,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>33</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="4">
         <f>18.4/1000*B245</f>
         <v>4.3626399999999996E-2</v>
       </c>
@@ -6154,10 +5602,10 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B247" s="5">
+      <c r="A247" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B247" s="4">
         <f>0.01*B245</f>
         <v>2.3710000000000002E-2</v>
       </c>
@@ -6173,25 +5621,25 @@
       <c r="G247" t="s">
         <v>24</v>
       </c>
-      <c r="H247" s="4" t="s">
-        <v>110</v>
+      <c r="H247" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I247" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B248" s="5"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="4"/>
+    </row>
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -6199,15 +5647,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -6215,7 +5663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6223,7 +5671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -6231,28 +5679,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>22</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>9</v>
       </c>
@@ -6281,11 +5729,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B259" s="3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>127</v>
+      </c>
+      <c r="B259">
         <v>1</v>
       </c>
       <c r="C259" t="s">
@@ -6295,21 +5743,21 @@
         <v>13</v>
       </c>
       <c r="E259" s="2"/>
-      <c r="F259" s="3" t="s">
+      <c r="F259" t="s">
         <v>18</v>
       </c>
       <c r="G259" t="s">
         <v>44</v>
       </c>
-      <c r="H259" s="3" t="s">
+      <c r="H259" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>137</v>
-      </c>
-      <c r="B260" s="5">
+        <v>136</v>
+      </c>
+      <c r="B260" s="4">
         <v>4.5599999999999996</v>
       </c>
       <c r="C260" t="s">
@@ -6328,11 +5776,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>33</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261" s="4">
         <f>18.4/1000*B260</f>
         <v>8.3903999999999992E-2</v>
       </c>
@@ -6353,10 +5801,10 @@
       </c>
     </row>
     <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B262" s="5">
+      <c r="A262" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B262" s="4">
         <f>0.01*B260</f>
         <v>4.5599999999999995E-2</v>
       </c>
@@ -6372,28 +5820,28 @@
       <c r="G262" t="s">
         <v>24</v>
       </c>
-      <c r="H262" s="4" t="s">
-        <v>110</v>
+      <c r="H262" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I262" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B263" s="5"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B264" s="5"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="4"/>
+    </row>
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B264" s="4"/>
+    </row>
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -6401,15 +5849,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6417,7 +5865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -6425,7 +5873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -6433,28 +5881,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>22</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>9</v>
       </c>
@@ -6483,11 +5931,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B275" s="3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>129</v>
+      </c>
+      <c r="B275">
         <v>1</v>
       </c>
       <c r="C275" t="s">
@@ -6497,21 +5945,21 @@
         <v>13</v>
       </c>
       <c r="E275" s="2"/>
-      <c r="F275" s="3" t="s">
+      <c r="F275" t="s">
         <v>18</v>
       </c>
       <c r="G275" t="s">
         <v>44</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="H275" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>137</v>
-      </c>
-      <c r="B276" s="5">
+        <v>136</v>
+      </c>
+      <c r="B276" s="4">
         <v>2.5350000000000001</v>
       </c>
       <c r="C276" t="s">
@@ -6530,11 +5978,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>33</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B277" s="4">
         <f>18.4/1000*B276</f>
         <v>4.6644000000000005E-2</v>
       </c>
@@ -6555,10 +6003,10 @@
       </c>
     </row>
     <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B278" s="5">
+      <c r="A278" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B278" s="4">
         <f>0.01*B276</f>
         <v>2.5350000000000001E-2</v>
       </c>
@@ -6574,25 +6022,25 @@
       <c r="G278" t="s">
         <v>24</v>
       </c>
-      <c r="H278" s="4" t="s">
-        <v>110</v>
+      <c r="H278" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I278" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B279" s="5"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="4"/>
+    </row>
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -6600,15 +6048,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6616,7 +6064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -6624,7 +6072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -6632,28 +6080,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>28</v>
       </c>
       <c r="B286" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>9</v>
       </c>
@@ -6682,11 +6130,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B290" s="3">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>121</v>
+      </c>
+      <c r="B290">
         <v>1</v>
       </c>
       <c r="C290" t="s">
@@ -6696,21 +6144,21 @@
         <v>13</v>
       </c>
       <c r="E290" s="2"/>
-      <c r="F290" s="3" t="s">
+      <c r="F290" t="s">
         <v>18</v>
       </c>
       <c r="G290" t="s">
         <v>44</v>
       </c>
-      <c r="H290" s="3" t="s">
+      <c r="H290" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>137</v>
-      </c>
-      <c r="B291" s="5">
+        <v>136</v>
+      </c>
+      <c r="B291" s="4">
         <v>1.77</v>
       </c>
       <c r="C291" t="s">
@@ -6729,11 +6177,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>33</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="4">
         <f>18.4/1000*B291</f>
         <v>3.2568E-2</v>
       </c>
@@ -6754,10 +6202,10 @@
       </c>
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B293" s="5">
+      <c r="A293" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B293" s="4">
         <f>0.01*B291</f>
         <v>1.77E-2</v>
       </c>
@@ -6773,25 +6221,25 @@
       <c r="G293" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="4" t="s">
-        <v>110</v>
+      <c r="H293" s="30" t="s">
+        <v>140</v>
       </c>
       <c r="I293" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B294" s="5"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="4"/>
+    </row>
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -6799,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>28</v>
       </c>
@@ -6807,7 +6255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -6815,7 +6263,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6823,7 +6271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -6831,7 +6279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>22</v>
       </c>
@@ -6839,7 +6287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -6847,28 +6295,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>28</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>22</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>9</v>
       </c>
@@ -6894,9 +6342,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6917,9 +6365,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6940,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>30</v>
       </c>
@@ -6963,9 +6411,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B310">
         <f>5870/44900</f>
@@ -6984,9 +6432,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B311">
         <v>1.6694063119110985E-6</v>
@@ -7004,7 +6452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>104</v>
       </c>
@@ -7027,15 +6475,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="314" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -7043,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2</v>
       </c>
@@ -7051,7 +6500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7059,7 +6508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -7067,7 +6516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -7075,28 +6524,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>28</v>
       </c>
-      <c r="B320" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>22</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -7122,7 +6571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>104</v>
       </c>
@@ -7146,9 +6595,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -7169,11 +6618,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>45</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326" s="4">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
@@ -7193,11 +6642,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>33</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327" s="4">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
@@ -7217,11 +6666,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>34</v>
       </c>
-      <c r="B328" s="5">
+      <c r="B328" s="4">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
@@ -7241,11 +6690,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>36</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329" s="4">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
@@ -7265,11 +6714,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>38</v>
       </c>
-      <c r="B330" s="5">
+      <c r="B330" s="4">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
@@ -7290,10 +6739,10 @@
       </c>
     </row>
     <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A331" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B331" s="5">
+      <c r="A331" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B331" s="4">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
@@ -7306,18 +6755,18 @@
       <c r="F331" t="s">
         <v>14</v>
       </c>
-      <c r="G331" s="4" t="s">
-        <v>110</v>
+      <c r="G331" s="31" t="s">
+        <v>140</v>
       </c>
       <c r="H331" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A332" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B332" s="5">
+    <row r="332" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B332" s="4">
         <v>0</v>
       </c>
       <c r="D332" t="s">
@@ -7329,12 +6778,19 @@
       <c r="F332" t="s">
         <v>17</v>
       </c>
-      <c r="G332" s="4"/>
+      <c r="G332" s="3"/>
       <c r="H332" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K332" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B287" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B272" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-coal-with-CCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9727A2EE-1467-9F49-8DFC-609384B7088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B3ECD-FE11-BF49-8627-8CFE7A721578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34000" yWindow="-700" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTG Process description" sheetId="2" r:id="rId1"/>
@@ -449,9 +449,6 @@
     <t>methanol distillation, hydrogen from coal gasification, with CCS</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant</t>
-  </si>
-  <si>
     <t>methanol synthesis, hydrogen from coal gasification, with CCS</t>
   </si>
   <si>
@@ -462,7 +459,10 @@
 We do not need to apply a carbon balance correction, since these 1.69 kg CO2 are stored in the fuel instead of being stored underground.</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 30 bar</t>
+    <t>hydrogen production, coal gasification, with CCS</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
   </si>
 </sst>
 </file>
@@ -474,23 +474,9 @@
     <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -627,41 +613,39 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -683,9 +667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -723,7 +707,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -829,7 +813,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -971,7 +955,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1910,12 +1894,12 @@
   <dimension ref="A1:K332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G333" sqref="G333"/>
+      <selection activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -4803,15 +4787,15 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>137</v>
+      <c r="A186" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B186" s="4">
         <f>0.01*B184</f>
         <v>2.3730000000000001E-2</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D186" t="s">
         <v>13</v>
@@ -4822,7 +4806,7 @@
       <c r="G186" t="s">
         <v>24</v>
       </c>
-      <c r="H186" s="30" t="s">
+      <c r="H186" s="29" t="s">
         <v>140</v>
       </c>
       <c r="I186" t="s">
@@ -5002,15 +4986,15 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>137</v>
+      <c r="A201" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B201" s="4">
         <f>0.01*B199</f>
         <v>1.9300000000000001E-2</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -5021,7 +5005,7 @@
       <c r="G201" t="s">
         <v>24</v>
       </c>
-      <c r="H201" s="30" t="s">
+      <c r="H201" s="29" t="s">
         <v>140</v>
       </c>
       <c r="I201" t="s">
@@ -5201,15 +5185,15 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
-        <v>137</v>
+      <c r="A216" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B216" s="4">
         <f>0.01*B214</f>
         <v>2.4510000000000001E-2</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
@@ -5220,7 +5204,7 @@
       <c r="G216" t="s">
         <v>24</v>
       </c>
-      <c r="H216" s="30" t="s">
+      <c r="H216" s="29" t="s">
         <v>140</v>
       </c>
       <c r="I216" t="s">
@@ -5400,15 +5384,15 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
-        <v>137</v>
+      <c r="A231" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B231" s="4">
         <f>0.01*B229</f>
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D231" t="s">
         <v>13</v>
@@ -5419,7 +5403,7 @@
       <c r="G231" t="s">
         <v>24</v>
       </c>
-      <c r="H231" s="30" t="s">
+      <c r="H231" s="29" t="s">
         <v>140</v>
       </c>
       <c r="I231" t="s">
@@ -5602,15 +5586,15 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
-        <v>137</v>
+      <c r="A247" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B247" s="4">
         <f>0.01*B245</f>
         <v>2.3710000000000002E-2</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D247" t="s">
         <v>13</v>
@@ -5621,7 +5605,7 @@
       <c r="G247" t="s">
         <v>24</v>
       </c>
-      <c r="H247" s="30" t="s">
+      <c r="H247" s="29" t="s">
         <v>140</v>
       </c>
       <c r="I247" t="s">
@@ -5801,15 +5785,15 @@
       </c>
     </row>
     <row r="262" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
-        <v>137</v>
+      <c r="A262" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B262" s="4">
         <f>0.01*B260</f>
         <v>4.5599999999999995E-2</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D262" t="s">
         <v>13</v>
@@ -5820,7 +5804,7 @@
       <c r="G262" t="s">
         <v>24</v>
       </c>
-      <c r="H262" s="30" t="s">
+      <c r="H262" s="29" t="s">
         <v>140</v>
       </c>
       <c r="I262" t="s">
@@ -6003,15 +5987,15 @@
       </c>
     </row>
     <row r="278" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
-        <v>137</v>
+      <c r="A278" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B278" s="4">
         <f>0.01*B276</f>
         <v>2.5350000000000001E-2</v>
       </c>
       <c r="C278" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D278" t="s">
         <v>13</v>
@@ -6022,7 +6006,7 @@
       <c r="G278" t="s">
         <v>24</v>
       </c>
-      <c r="H278" s="30" t="s">
+      <c r="H278" s="29" t="s">
         <v>140</v>
       </c>
       <c r="I278" t="s">
@@ -6202,15 +6186,15 @@
       </c>
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
-        <v>137</v>
+      <c r="A293" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="B293" s="4">
         <f>0.01*B291</f>
         <v>1.77E-2</v>
       </c>
       <c r="C293" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D293" t="s">
         <v>13</v>
@@ -6221,7 +6205,7 @@
       <c r="G293" t="s">
         <v>24</v>
       </c>
-      <c r="H293" s="30" t="s">
+      <c r="H293" s="29" t="s">
         <v>140</v>
       </c>
       <c r="I293" t="s">
@@ -6344,7 +6328,7 @@
     </row>
     <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6481,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6529,7 +6513,7 @@
         <v>28</v>
       </c>
       <c r="B320" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6597,7 +6581,7 @@
     </row>
     <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6740,14 +6724,14 @@
     </row>
     <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B331" s="4">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C331" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D331" t="s">
         <v>13</v>
@@ -6755,7 +6739,7 @@
       <c r="F331" t="s">
         <v>14</v>
       </c>
-      <c r="G331" s="31" t="s">
+      <c r="G331" s="29" t="s">
         <v>140</v>
       </c>
       <c r="H331" t="s">
@@ -6787,6 +6771,7 @@
   <autoFilter ref="A1:K332" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
+        <filter val="hydrogen production, coal gasification, with CCS"/>
         <filter val="hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant"/>
       </filters>
     </filterColumn>
